--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb3-Ephb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb3-Ephb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Efnb3</t>
+  </si>
+  <si>
+    <t>Ephb3</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Efnb3</t>
-  </si>
-  <si>
-    <t>Ephb3</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.08736233333333332</v>
+        <v>0.071327</v>
       </c>
       <c r="H2">
-        <v>0.262087</v>
+        <v>0.213981</v>
       </c>
       <c r="I2">
-        <v>0.05767651158852534</v>
+        <v>0.1064107741026886</v>
       </c>
       <c r="J2">
-        <v>0.07409173752753134</v>
+        <v>0.1213845878939322</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.04936133333333333</v>
+        <v>0.1030276666666667</v>
       </c>
       <c r="N2">
-        <v>0.148084</v>
+        <v>0.309083</v>
       </c>
       <c r="O2">
-        <v>0.002475496704993591</v>
+        <v>0.005678588141197309</v>
       </c>
       <c r="P2">
-        <v>0.002635547730441438</v>
+        <v>0.005869434938871914</v>
       </c>
       <c r="Q2">
-        <v>0.004312321256444444</v>
+        <v>0.007348654380333334</v>
       </c>
       <c r="R2">
-        <v>0.03881089130799999</v>
+        <v>0.066137889423</v>
       </c>
       <c r="S2">
-        <v>0.0001427780143929192</v>
+        <v>0.0006042629599151531</v>
       </c>
       <c r="T2">
-        <v>0.0001952723106851479</v>
+        <v>0.0007124589412252145</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.08736233333333332</v>
+        <v>0.071327</v>
       </c>
       <c r="H3">
-        <v>0.262087</v>
+        <v>0.213981</v>
       </c>
       <c r="I3">
-        <v>0.05767651158852534</v>
+        <v>0.1064107741026886</v>
       </c>
       <c r="J3">
-        <v>0.07409173752753134</v>
+        <v>0.1213845878939322</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +620,25 @@
         <v>16.251742</v>
       </c>
       <c r="N3">
-        <v>48.755226</v>
+        <v>48.75522599999999</v>
       </c>
       <c r="O3">
-        <v>0.8150333683194528</v>
+        <v>0.8957491941808339</v>
       </c>
       <c r="P3">
-        <v>0.8677286218055926</v>
+        <v>0.9258536604633588</v>
       </c>
       <c r="Q3">
-        <v>1.419790101851333</v>
+        <v>1.159188001634</v>
       </c>
       <c r="R3">
-        <v>12.778110916662</v>
+        <v>10.432692014706</v>
       </c>
       <c r="S3">
-        <v>0.04700828151291176</v>
+        <v>0.09531736515464202</v>
       </c>
       <c r="T3">
-        <v>0.06429152129194649</v>
+        <v>0.1123843650254335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.071327</v>
+      </c>
+      <c r="H4">
+        <v>0.213981</v>
+      </c>
+      <c r="I4">
+        <v>0.1064107741026886</v>
+      </c>
+      <c r="J4">
+        <v>0.1213845878939322</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.08736233333333332</v>
-      </c>
-      <c r="H4">
-        <v>0.262087</v>
-      </c>
-      <c r="I4">
-        <v>0.05767651158852534</v>
-      </c>
-      <c r="J4">
-        <v>0.07409173752753134</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.006136</v>
+        <v>1.7697965</v>
       </c>
       <c r="N4">
-        <v>0.018408</v>
+        <v>3.539593</v>
       </c>
       <c r="O4">
-        <v>0.0003077236119062291</v>
+        <v>0.09754608390528599</v>
       </c>
       <c r="P4">
-        <v>0.0003276192068148212</v>
+        <v>0.06721628437535049</v>
       </c>
       <c r="Q4">
-        <v>0.0005360552773333333</v>
+        <v>0.1262342749555</v>
       </c>
       <c r="R4">
-        <v>0.004824497495999999</v>
+        <v>0.7574056497330001</v>
       </c>
       <c r="S4">
-        <v>1.774842446817249E-05</v>
+        <v>0.01037995429904729</v>
       </c>
       <c r="T4">
-        <v>2.427387628030174E-05</v>
+        <v>0.008159020978663275</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.08736233333333332</v>
+        <v>0.071327</v>
       </c>
       <c r="H5">
-        <v>0.262087</v>
+        <v>0.213981</v>
       </c>
       <c r="I5">
-        <v>0.05767651158852534</v>
+        <v>0.1064107741026886</v>
       </c>
       <c r="J5">
-        <v>0.07409173752753134</v>
+        <v>0.1213845878939322</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.632732</v>
+        <v>0.01861733333333333</v>
       </c>
       <c r="N5">
-        <v>7.265464</v>
+        <v>0.055852</v>
       </c>
       <c r="O5">
-        <v>0.1821834113636472</v>
+        <v>0.001026133772682911</v>
       </c>
       <c r="P5">
-        <v>0.1293082112571511</v>
+        <v>0.001060620222418814</v>
       </c>
       <c r="Q5">
-        <v>0.3173639438946666</v>
+        <v>0.001327918534666667</v>
       </c>
       <c r="R5">
-        <v>1.904183663368</v>
+        <v>0.011951266812</v>
       </c>
       <c r="S5">
-        <v>0.01050770363675248</v>
+        <v>0.0001091916890841008</v>
       </c>
       <c r="T5">
-        <v>0.009580670048619415</v>
+        <v>0.0001287429486102784</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -794,10 +791,10 @@
         <v>1.052732</v>
       </c>
       <c r="I6">
-        <v>0.2316708169333521</v>
+        <v>0.5235138962929958</v>
       </c>
       <c r="J6">
-        <v>0.2976063026049867</v>
+        <v>0.5971812449832231</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.04936133333333333</v>
+        <v>0.1030276666666667</v>
       </c>
       <c r="N6">
-        <v>0.148084</v>
+        <v>0.309083</v>
       </c>
       <c r="O6">
-        <v>0.002475496704993591</v>
+        <v>0.005678588141197309</v>
       </c>
       <c r="P6">
-        <v>0.002635547730441438</v>
+        <v>0.005869434938871914</v>
       </c>
       <c r="Q6">
-        <v>0.01732141838755556</v>
+        <v>0.03615350719511111</v>
       </c>
       <c r="R6">
-        <v>0.155892765488</v>
+        <v>0.325381564756</v>
       </c>
       <c r="S6">
-        <v>0.0005735003439616867</v>
+        <v>0.002972819803241404</v>
       </c>
       <c r="T6">
-        <v>0.0007843556153956403</v>
+        <v>0.003505116464143558</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -856,10 +853,10 @@
         <v>1.052732</v>
       </c>
       <c r="I7">
-        <v>0.2316708169333521</v>
+        <v>0.5235138962929958</v>
       </c>
       <c r="J7">
-        <v>0.2976063026049867</v>
+        <v>0.5971812449832231</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,25 +868,25 @@
         <v>16.251742</v>
       </c>
       <c r="N7">
-        <v>48.755226</v>
+        <v>48.75522599999999</v>
       </c>
       <c r="O7">
-        <v>0.8150333683194528</v>
+        <v>0.8957491941808339</v>
       </c>
       <c r="P7">
-        <v>0.8677286218055926</v>
+        <v>0.9258536604633588</v>
       </c>
       <c r="Q7">
-        <v>5.702909619714666</v>
+        <v>5.702909619714665</v>
       </c>
       <c r="R7">
-        <v>51.326186577432</v>
+        <v>51.32618657743199</v>
       </c>
       <c r="S7">
-        <v>0.1888194462665093</v>
+        <v>0.4689371507469197</v>
       </c>
       <c r="T7">
-        <v>0.2582415068000832</v>
+        <v>0.5529024416277829</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -918,40 +915,40 @@
         <v>1.052732</v>
       </c>
       <c r="I8">
-        <v>0.2316708169333521</v>
+        <v>0.5235138962929958</v>
       </c>
       <c r="J8">
-        <v>0.2976063026049867</v>
+        <v>0.5971812449832231</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.006136</v>
+        <v>1.7697965</v>
       </c>
       <c r="N8">
-        <v>0.018408</v>
+        <v>3.539593</v>
       </c>
       <c r="O8">
-        <v>0.0003077236119062291</v>
+        <v>0.09754608390528599</v>
       </c>
       <c r="P8">
-        <v>0.0003276192068148212</v>
+        <v>0.06721628437535049</v>
       </c>
       <c r="Q8">
-        <v>0.002153187850666666</v>
+        <v>0.6210404696793334</v>
       </c>
       <c r="R8">
-        <v>0.019378690656</v>
+        <v>3.726242818076</v>
       </c>
       <c r="S8">
-        <v>7.129058055999789E-05</v>
+        <v>0.05106673045337976</v>
       </c>
       <c r="T8">
-        <v>9.750154080253738E-05</v>
+        <v>0.04014030438641817</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -980,40 +977,40 @@
         <v>1.052732</v>
       </c>
       <c r="I9">
-        <v>0.2316708169333521</v>
+        <v>0.5235138962929958</v>
       </c>
       <c r="J9">
-        <v>0.2976063026049867</v>
+        <v>0.5971812449832231</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.632732</v>
+        <v>0.01861733333333333</v>
       </c>
       <c r="N9">
-        <v>7.265464</v>
+        <v>0.055852</v>
       </c>
       <c r="O9">
-        <v>0.1821834113636472</v>
+        <v>0.001026133772682911</v>
       </c>
       <c r="P9">
-        <v>0.1293082112571511</v>
+        <v>0.001060620222418814</v>
       </c>
       <c r="Q9">
-        <v>1.274764407941333</v>
+        <v>0.006533020851555555</v>
       </c>
       <c r="R9">
-        <v>7.648586447647999</v>
+        <v>0.058797187664</v>
       </c>
       <c r="S9">
-        <v>0.04220657974232109</v>
+        <v>0.0005371952894550619</v>
       </c>
       <c r="T9">
-        <v>0.03848293864870526</v>
+        <v>0.0006333825048784501</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>1.0067545</v>
+        <v>0.248061</v>
       </c>
       <c r="H10">
-        <v>2.013509</v>
+        <v>0.496122</v>
       </c>
       <c r="I10">
-        <v>0.6646581583907257</v>
+        <v>0.3700753296043157</v>
       </c>
       <c r="J10">
-        <v>0.569217017010848</v>
+        <v>0.2814341671228447</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.04936133333333333</v>
+        <v>0.1030276666666667</v>
       </c>
       <c r="N10">
-        <v>0.148084</v>
+        <v>0.309083</v>
       </c>
       <c r="O10">
-        <v>0.002475496704993591</v>
+        <v>0.005678588141197309</v>
       </c>
       <c r="P10">
-        <v>0.002635547730441438</v>
+        <v>0.005869434938871914</v>
       </c>
       <c r="Q10">
-        <v>0.04969474445933333</v>
+        <v>0.025557146021</v>
       </c>
       <c r="R10">
-        <v>0.298168466756</v>
+        <v>0.153342876126</v>
       </c>
       <c r="S10">
-        <v>0.00164535908104335</v>
+        <v>0.002101505378040753</v>
       </c>
       <c r="T10">
-        <v>0.001500198617311586</v>
+        <v>0.001651859533503142</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>1.0067545</v>
+        <v>0.248061</v>
       </c>
       <c r="H11">
-        <v>2.013509</v>
+        <v>0.496122</v>
       </c>
       <c r="I11">
-        <v>0.6646581583907257</v>
+        <v>0.3700753296043157</v>
       </c>
       <c r="J11">
-        <v>0.569217017010848</v>
+        <v>0.2814341671228447</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,25 +1116,25 @@
         <v>16.251742</v>
       </c>
       <c r="N11">
-        <v>48.755226</v>
+        <v>48.75522599999999</v>
       </c>
       <c r="O11">
-        <v>0.8150333683194528</v>
+        <v>0.8957491941808339</v>
       </c>
       <c r="P11">
-        <v>0.8677286218055926</v>
+        <v>0.9258536604633588</v>
       </c>
       <c r="Q11">
-        <v>16.361514391339</v>
+        <v>4.031423372261999</v>
       </c>
       <c r="R11">
-        <v>98.169086348034</v>
+        <v>24.188540233572</v>
       </c>
       <c r="S11">
-        <v>0.5417185776141976</v>
+        <v>0.3314946782792723</v>
       </c>
       <c r="T11">
-        <v>0.4939258976791138</v>
+        <v>0.2605668538101425</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.248061</v>
+      </c>
+      <c r="H12">
+        <v>0.496122</v>
+      </c>
+      <c r="I12">
+        <v>0.3700753296043157</v>
+      </c>
+      <c r="J12">
+        <v>0.2814341671228447</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1.0067545</v>
-      </c>
-      <c r="H12">
-        <v>2.013509</v>
-      </c>
-      <c r="I12">
-        <v>0.6646581583907257</v>
-      </c>
-      <c r="J12">
-        <v>0.569217017010848</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.006136</v>
+        <v>1.7697965</v>
       </c>
       <c r="N12">
-        <v>0.018408</v>
+        <v>3.539593</v>
       </c>
       <c r="O12">
-        <v>0.0003077236119062291</v>
+        <v>0.09754608390528599</v>
       </c>
       <c r="P12">
-        <v>0.0003276192068148212</v>
+        <v>0.06721628437535049</v>
       </c>
       <c r="Q12">
-        <v>0.006177445612</v>
+        <v>0.4390174895865</v>
       </c>
       <c r="R12">
-        <v>0.037064673672</v>
+        <v>1.756069958346</v>
       </c>
       <c r="S12">
-        <v>0.0002045310091829366</v>
+        <v>0.03609939915285895</v>
       </c>
       <c r="T12">
-        <v>0.0001864864276185926</v>
+        <v>0.01891695901026905</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,309 +1204,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>1.0067545</v>
+        <v>0.248061</v>
       </c>
       <c r="H13">
-        <v>2.013509</v>
+        <v>0.496122</v>
       </c>
       <c r="I13">
-        <v>0.6646581583907257</v>
+        <v>0.3700753296043157</v>
       </c>
       <c r="J13">
-        <v>0.569217017010848</v>
+        <v>0.2814341671228447</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>3.632732</v>
+        <v>0.01861733333333333</v>
       </c>
       <c r="N13">
-        <v>7.265464</v>
+        <v>0.055852</v>
       </c>
       <c r="O13">
-        <v>0.1821834113636472</v>
+        <v>0.001026133772682911</v>
       </c>
       <c r="P13">
-        <v>0.1293082112571511</v>
+        <v>0.001060620222418814</v>
       </c>
       <c r="Q13">
-        <v>3.657269288294</v>
+        <v>0.004618234324</v>
       </c>
       <c r="R13">
-        <v>14.629077153176</v>
+        <v>0.027709405944</v>
       </c>
       <c r="S13">
-        <v>0.1210896906863018</v>
+        <v>0.0003797467941437482</v>
       </c>
       <c r="T13">
-        <v>0.07360443428680413</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.06966766666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.209003</v>
-      </c>
-      <c r="I14">
-        <v>0.0459945130873968</v>
-      </c>
-      <c r="J14">
-        <v>0.05908494285663401</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.04936133333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.148084</v>
-      </c>
-      <c r="O14">
-        <v>0.002475496704993591</v>
-      </c>
-      <c r="P14">
-        <v>0.002635547730441438</v>
-      </c>
-      <c r="Q14">
-        <v>0.003438888916888889</v>
-      </c>
-      <c r="R14">
-        <v>0.030950000252</v>
-      </c>
-      <c r="S14">
-        <v>0.0001138592655956354</v>
-      </c>
-      <c r="T14">
-        <v>0.0001557211870490638</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.06966766666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.209003</v>
-      </c>
-      <c r="I15">
-        <v>0.0459945130873968</v>
-      </c>
-      <c r="J15">
-        <v>0.05908494285663401</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>16.251742</v>
-      </c>
-      <c r="N15">
-        <v>48.755226</v>
-      </c>
-      <c r="O15">
-        <v>0.8150333683194528</v>
-      </c>
-      <c r="P15">
-        <v>0.8677286218055926</v>
-      </c>
-      <c r="Q15">
-        <v>1.132220944408667</v>
-      </c>
-      <c r="R15">
-        <v>10.189988499678</v>
-      </c>
-      <c r="S15">
-        <v>0.03748706292583417</v>
-      </c>
-      <c r="T15">
-        <v>0.05126969603444922</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.06966766666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.209003</v>
-      </c>
-      <c r="I16">
-        <v>0.0459945130873968</v>
-      </c>
-      <c r="J16">
-        <v>0.05908494285663401</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.006136</v>
-      </c>
-      <c r="N16">
-        <v>0.018408</v>
-      </c>
-      <c r="O16">
-        <v>0.0003077236119062291</v>
-      </c>
-      <c r="P16">
-        <v>0.0003276192068148212</v>
-      </c>
-      <c r="Q16">
-        <v>0.0004274808026666667</v>
-      </c>
-      <c r="R16">
-        <v>0.003847327224000001</v>
-      </c>
-      <c r="S16">
-        <v>1.415359769512207E-05</v>
-      </c>
-      <c r="T16">
-        <v>1.935736211338947E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.06966766666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.209003</v>
-      </c>
-      <c r="I17">
-        <v>0.0459945130873968</v>
-      </c>
-      <c r="J17">
-        <v>0.05908494285663401</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>3.632732</v>
-      </c>
-      <c r="N17">
-        <v>7.265464</v>
-      </c>
-      <c r="O17">
-        <v>0.1821834113636472</v>
-      </c>
-      <c r="P17">
-        <v>0.1293082112571511</v>
-      </c>
-      <c r="Q17">
-        <v>0.2530839620653333</v>
-      </c>
-      <c r="R17">
-        <v>1.518503772392</v>
-      </c>
-      <c r="S17">
-        <v>0.008379437298271866</v>
-      </c>
-      <c r="T17">
-        <v>0.007640168273022333</v>
+        <v>0.0002984947689300851</v>
       </c>
     </row>
   </sheetData>
